--- a/4_classification&evaluation/output/evaluation_time.xlsx
+++ b/4_classification&evaluation/output/evaluation_time.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,40 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01640195846557617</v>
+        <v>0.02165846824645996</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03536176681518555</v>
+        <v>0.04358482360839844</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01640195846557617</v>
+        <v>0.02165846824645996</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03536176681518555</v>
+        <v>0.04358482360839844</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01640195846557617</v>
+        <v>0.02165846824645996</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03536176681518555</v>
+        <v>0.04358482360839844</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01614618301391602</v>
+        <v>0.01571402549743652</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03171133995056152</v>
+        <v>0.0327878475189209</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01614618301391602</v>
+        <v>0.01571402549743652</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03171133995056152</v>
+        <v>0.0327878475189209</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01614618301391602</v>
+        <v>0.01571402549743652</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03171133995056152</v>
+        <v>0.0327878475189209</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0780024528503418</v>
+        <v>0.08838996887207032</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02668185234069824</v>
+        <v>0.02878413200378418</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0780024528503418</v>
+        <v>0.08838996887207032</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02668185234069824</v>
+        <v>0.02878413200378418</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0780024528503418</v>
+        <v>0.08838996887207032</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02668185234069824</v>
+        <v>0.02878413200378418</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0759307861328125</v>
+        <v>0.1059636116027832</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02901086807250976</v>
+        <v>0.03095073699951172</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0759307861328125</v>
+        <v>0.1059636116027832</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02901086807250976</v>
+        <v>0.03095073699951172</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0759307861328125</v>
+        <v>0.1059636116027832</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02901086807250976</v>
+        <v>0.03095073699951172</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1061861515045166</v>
+        <v>0.1257381439208984</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03734803199768066</v>
+        <v>0.02428970336914062</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1061861515045166</v>
+        <v>0.1257381439208984</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03734803199768066</v>
+        <v>0.02428970336914062</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1061861515045166</v>
+        <v>0.1257381439208984</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03734803199768066</v>
+        <v>0.02428970336914062</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09341516494750976</v>
+        <v>0.108679723739624</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03211760520935059</v>
+        <v>0.02691059112548828</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09341516494750976</v>
+        <v>0.108679723739624</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03211760520935059</v>
+        <v>0.02691059112548828</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09341516494750976</v>
+        <v>0.108679723739624</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03211760520935059</v>
+        <v>0.02691059112548828</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +631,83 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.026806640625</v>
+        <v>0.03609085083007812</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02760109901428223</v>
+        <v>0.02265701293945312</v>
       </c>
       <c r="D5" t="n">
-        <v>0.026806640625</v>
+        <v>0.03609085083007812</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02760109901428223</v>
+        <v>0.02265701293945312</v>
       </c>
       <c r="F5" t="n">
-        <v>0.026806640625</v>
+        <v>0.03609085083007812</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02760109901428223</v>
+        <v>0.02265701293945312</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01890287399291992</v>
+        <v>0.02435874938964844</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0243021011352539</v>
+        <v>0.02657623291015625</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01890287399291992</v>
+        <v>0.02435874938964844</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0243021011352539</v>
+        <v>0.02657623291015625</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01890287399291992</v>
+        <v>0.02435874938964844</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0243021011352539</v>
+        <v>0.02657623291015625</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2798385143280029</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.09443140029907227</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2798385143280029</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.09443140029907227</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2798385143280029</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.09443140029907227</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.3162019729614258</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1204162120819092</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.3162019729614258</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1204162120819092</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.3162019729614258</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.1204162120819092</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/evaluation_time.xlsx
+++ b/4_classification&evaluation/output/evaluation_time.xlsx
@@ -502,40 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02165846824645996</v>
+        <v>0.01725645065307617</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04358482360839844</v>
+        <v>0.03141732215881347</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02165846824645996</v>
+        <v>0.009490489959716797</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04358482360839844</v>
+        <v>0.03944683074951172</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02165846824645996</v>
+        <v>0.001839208602905273</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04358482360839844</v>
+        <v>0.1242012023925781</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01571402549743652</v>
+        <v>0.01597375869750977</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0327878475189209</v>
+        <v>0.03081741333007813</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01571402549743652</v>
+        <v>0.00725102424621582</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0327878475189209</v>
+        <v>0.02898116111755371</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01571402549743652</v>
+        <v>0.006539154052734375</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0327878475189209</v>
+        <v>0.026336669921875</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08838996887207032</v>
+        <v>0.08387041091918945</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02878413200378418</v>
+        <v>0.0266848087310791</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08838996887207032</v>
+        <v>0.02014985084533692</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02878413200378418</v>
+        <v>0.01183633804321289</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08838996887207032</v>
+        <v>0.009063911437988282</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02878413200378418</v>
+        <v>0.01138968467712402</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1059636116027832</v>
+        <v>0.1044690132141113</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03095073699951172</v>
+        <v>0.0287053108215332</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1059636116027832</v>
+        <v>0.05681490898132324</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03095073699951172</v>
+        <v>0.01764702796936035</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1059636116027832</v>
+        <v>0.02539873123168945</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03095073699951172</v>
+        <v>0.0125185489654541</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1257381439208984</v>
+        <v>0.03561749458312988</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02428970336914062</v>
+        <v>0.0201786994934082</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1257381439208984</v>
+        <v>0.01374039649963379</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02428970336914062</v>
+        <v>0.01269259452819824</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1257381439208984</v>
+        <v>0.0344963550567627</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02428970336914062</v>
+        <v>0.009637451171875</v>
       </c>
       <c r="H4" t="n">
-        <v>0.108679723739624</v>
+        <v>0.02837986946105957</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02691059112548828</v>
+        <v>0.01765804290771484</v>
       </c>
       <c r="J4" t="n">
-        <v>0.108679723739624</v>
+        <v>0.01890754699707031</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02691059112548828</v>
+        <v>0.01922955513000488</v>
       </c>
       <c r="L4" t="n">
-        <v>0.108679723739624</v>
+        <v>0.04205517768859864</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02691059112548828</v>
+        <v>0.009588718414306641</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +631,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03609085083007812</v>
+        <v>0.02502899169921875</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02265701293945312</v>
+        <v>0.02421727180480957</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03609085083007812</v>
+        <v>0.01309952735900879</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02265701293945312</v>
+        <v>0.01571526527404785</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03609085083007812</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02265701293945312</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02435874938964844</v>
+        <v>0.02567629814147949</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02657623291015625</v>
+        <v>0.02825546264648438</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02435874938964844</v>
+        <v>0.0176084041595459</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02657623291015625</v>
+        <v>0.02307271957397461</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02435874938964844</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02657623291015625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2798385143280029</v>
+        <v>0.2348223686218262</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09443140029907227</v>
+        <v>0.1124072074890137</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2798385143280029</v>
+        <v>0.1049034118652344</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09443140029907227</v>
+        <v>0.05160722732543945</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2798385143280029</v>
+        <v>0.0765467643737793</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09443140029907227</v>
+        <v>0.03398575782775879</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3162019729614258</v>
+        <v>0.1944195747375488</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1204162120819092</v>
+        <v>0.09241256713867188</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3162019729614258</v>
+        <v>0.1291063785552979</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1204162120819092</v>
+        <v>0.06066160202026367</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3162019729614258</v>
+        <v>0.07499794960021973</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1204162120819092</v>
+        <v>0.03779067993164063</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/evaluation_time.xlsx
+++ b/4_classification&evaluation/output/evaluation_time.xlsx
@@ -502,40 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01725645065307617</v>
+        <v>0.0224449634552002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03141732215881347</v>
+        <v>0.04331727027893066</v>
       </c>
       <c r="D2" t="n">
-        <v>0.009490489959716797</v>
+        <v>0.01298418045043945</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03944683074951172</v>
+        <v>0.02321395874023437</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001839208602905273</v>
+        <v>0.009221601486206054</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1242012023925781</v>
+        <v>0.1111621379852295</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01597375869750977</v>
+        <v>0.01633610725402832</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03081741333007813</v>
+        <v>0.03061103820800781</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00725102424621582</v>
+        <v>0.01359930038452148</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02898116111755371</v>
+        <v>0.02527627944946289</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006539154052734375</v>
+        <v>0.008940172195434571</v>
       </c>
       <c r="M2" t="n">
-        <v>0.026336669921875</v>
+        <v>0.02662134170532227</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08387041091918945</v>
+        <v>0.09064240455627441</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0266848087310791</v>
+        <v>0.02895145416259766</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02014985084533692</v>
+        <v>0.03159785270690918</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01183633804321289</v>
+        <v>0.02548084259033203</v>
       </c>
       <c r="F3" t="n">
-        <v>0.009063911437988282</v>
+        <v>0.0145392894744873</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01138968467712402</v>
+        <v>0.01705532073974609</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1044690132141113</v>
+        <v>0.1523452281951904</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0287053108215332</v>
+        <v>0.04470338821411133</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05681490898132324</v>
+        <v>0.06529712677001953</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01764702796936035</v>
+        <v>0.02166919708251953</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02539873123168945</v>
+        <v>0.03138537406921386</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0125185489654541</v>
+        <v>0.01520314216613769</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03561749458312988</v>
+        <v>0.04771676063537598</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0201786994934082</v>
+        <v>0.03128142356872558</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01374039649963379</v>
+        <v>0.01005845069885254</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01269259452819824</v>
+        <v>0.01064667701721191</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0344963550567627</v>
+        <v>0.04741535186767578</v>
       </c>
       <c r="G4" t="n">
-        <v>0.009637451171875</v>
+        <v>0.01022868156433105</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02837986946105957</v>
+        <v>0.03005590438842774</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01765804290771484</v>
+        <v>0.02295050621032715</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01890754699707031</v>
+        <v>0.02708320617675781</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01922955513000488</v>
+        <v>0.02170171737670899</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04205517768859864</v>
+        <v>0.04835963249206543</v>
       </c>
       <c r="M4" t="n">
-        <v>0.009588718414306641</v>
+        <v>0.009272575378417969</v>
       </c>
     </row>
     <row r="5">
@@ -631,16 +631,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02502899169921875</v>
+        <v>0.02702350616455078</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02421727180480957</v>
+        <v>0.0285923957824707</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01309952735900879</v>
+        <v>0.01271085739135742</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01571526527404785</v>
+        <v>0.01342740058898926</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02567629814147949</v>
+        <v>0.01565513610839844</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02825546264648438</v>
+        <v>0.02653164863586426</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0176084041595459</v>
+        <v>0.01306591033935547</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02307271957397461</v>
+        <v>0.0133671760559082</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -674,40 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2348223686218262</v>
+        <v>0.2495463371276855</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1124072074890137</v>
+        <v>0.09323277473449706</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1049034118652344</v>
+        <v>0.09794659614562988</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05160722732543945</v>
+        <v>0.04724011421203613</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0765467643737793</v>
+        <v>0.09229340553283691</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03398575782775879</v>
+        <v>0.04193358421325684</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1944195747375488</v>
+        <v>0.2245556354522705</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09241256713867188</v>
+        <v>0.0906646728515625</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1291063785552979</v>
+        <v>0.13083815574646</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06066160202026367</v>
+        <v>0.06593403816223145</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07499794960021973</v>
+        <v>0.0783452033996582</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03779067993164063</v>
+        <v>0.03139667510986328</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/evaluation_time.xlsx
+++ b/4_classification&evaluation/output/evaluation_time.xlsx
@@ -502,40 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0224449634552002</v>
+        <v>0.01201310157775879</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04331727027893066</v>
+        <v>0.02299184799194336</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01298418045043945</v>
+        <v>0.005204677581787109</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02321395874023437</v>
+        <v>0.01499357223510742</v>
       </c>
       <c r="F2" t="n">
-        <v>0.009221601486206054</v>
+        <v>0.002000093460083008</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1111621379852295</v>
+        <v>0.05489683151245117</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01633610725402832</v>
+        <v>0.01140074729919434</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03061103820800781</v>
+        <v>0.02099061012268066</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01359930038452148</v>
+        <v>0.007001066207885742</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02527627944946289</v>
+        <v>0.01800565719604492</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008940172195434571</v>
+        <v>0.003800296783447266</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02662134170532227</v>
+        <v>0.0157921314239502</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09064240455627441</v>
+        <v>0.06119928359985351</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02895145416259766</v>
+        <v>0.02040271759033203</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03159785270690918</v>
+        <v>0.01459832191467285</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02548084259033203</v>
+        <v>0.0102013111114502</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0145392894744873</v>
+        <v>0.008205699920654296</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01705532073974609</v>
+        <v>0.008400440216064453</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1523452281951904</v>
+        <v>0.06964716911315919</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04470338821411133</v>
+        <v>0.02338857650756836</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06529712677001953</v>
+        <v>0.03860573768615723</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02166919708251953</v>
+        <v>0.01459240913391113</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03138537406921386</v>
+        <v>0.01640558242797852</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01520314216613769</v>
+        <v>0.009794712066650391</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04771676063537598</v>
+        <v>0.02059807777404785</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03128142356872558</v>
+        <v>0.01220030784606934</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01005845069885254</v>
+        <v>0.005792474746704102</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01064667701721191</v>
+        <v>0.007007646560668945</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04741535186767578</v>
+        <v>0.02840056419372559</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01022868156433105</v>
+        <v>0.006998729705810547</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03005590438842774</v>
+        <v>0.01559834480285644</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02295050621032715</v>
+        <v>0.01220040321350098</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02708320617675781</v>
+        <v>0.01020479202270508</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02170171737670899</v>
+        <v>0.01019325256347656</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04835963249206543</v>
+        <v>0.02960004806518555</v>
       </c>
       <c r="M4" t="n">
-        <v>0.009272575378417969</v>
+        <v>0.007999134063720704</v>
       </c>
     </row>
     <row r="5">
@@ -631,16 +631,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02702350616455078</v>
+        <v>0.01299777030944824</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0285923957824707</v>
+        <v>0.0118013858795166</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01271085739135742</v>
+        <v>0.006400156021118164</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01342740058898926</v>
+        <v>0.007992267608642578</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01565513610839844</v>
+        <v>0.00978713035583496</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02653164863586426</v>
+        <v>0.01181368827819824</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01306591033935547</v>
+        <v>0.006191682815551758</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0133671760559082</v>
+        <v>0.009407758712768555</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -674,40 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2495463371276855</v>
+        <v>0.2619985580444336</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09323277473449706</v>
+        <v>0.04319491386413574</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09794659614562988</v>
+        <v>0.1314091205596924</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04724011421203613</v>
+        <v>0.02739195823669434</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09229340553283691</v>
+        <v>0.09050664901733399</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04193358421325684</v>
+        <v>0.01580123901367187</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2245556354522705</v>
+        <v>0.3138197898864746</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0906646728515625</v>
+        <v>0.04560251235961914</v>
       </c>
       <c r="J6" t="n">
-        <v>0.13083815574646</v>
+        <v>0.2040053844451904</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06593403816223145</v>
+        <v>0.03279032707214356</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0783452033996582</v>
+        <v>0.1169989585876465</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03139667510986328</v>
+        <v>0.01840567588806152</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/evaluation_time.xlsx
+++ b/4_classification&evaluation/output/evaluation_time.xlsx
@@ -502,40 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01201310157775879</v>
+        <v>0.009796047210693359</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02299184799194336</v>
+        <v>0.02279024124145508</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005204677581787109</v>
+        <v>0.00312647819519043</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01499357223510742</v>
+        <v>0.01762537956237793</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002000093460083008</v>
+        <v>0.003726291656494141</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05489683151245117</v>
+        <v>0.05270538330078125</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01140074729919434</v>
+        <v>0.009382867813110351</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02099061012268066</v>
+        <v>0.02599706649780274</v>
       </c>
       <c r="J2" t="n">
-        <v>0.007001066207885742</v>
+        <v>0.00970306396484375</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01800565719604492</v>
+        <v>0.01475033760070801</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003800296783447266</v>
+        <v>0.00700526237487793</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0157921314239502</v>
+        <v>0.0132171630859375</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06119928359985351</v>
+        <v>0.05377283096313477</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02040271759033203</v>
+        <v>0.02862896919250488</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01459832191467285</v>
+        <v>0.008992338180541992</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0102013111114502</v>
+        <v>0.01143684387207031</v>
       </c>
       <c r="F3" t="n">
-        <v>0.008205699920654296</v>
+        <v>0.0157198429107666</v>
       </c>
       <c r="G3" t="n">
-        <v>0.008400440216064453</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06964716911315919</v>
+        <v>0.06583108901977539</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02338857650756836</v>
+        <v>0.02456555366516113</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03860573768615723</v>
+        <v>0.03796019554138184</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01459240913391113</v>
+        <v>0.01563382148742676</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01640558242797852</v>
+        <v>0.01526918411254883</v>
       </c>
       <c r="M3" t="n">
-        <v>0.009794712066650391</v>
+        <v>0.01136612892150879</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02059807777404785</v>
+        <v>0.02357845306396484</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01220030784606934</v>
+        <v>0.01424446105957031</v>
       </c>
       <c r="D4" t="n">
-        <v>0.005792474746704102</v>
+        <v>0.007114553451538086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.007007646560668945</v>
+        <v>0.007086801528930664</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02840056419372559</v>
+        <v>0.02898449897766113</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006998729705810547</v>
+        <v>0.007525300979614258</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01559834480285644</v>
+        <v>0.0185636043548584</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01220040321350098</v>
+        <v>0.01203804016113281</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01020479202270508</v>
+        <v>0.01062946319580078</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01019325256347656</v>
+        <v>0.01005759239196777</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02960004806518555</v>
+        <v>0.03003277778625488</v>
       </c>
       <c r="M4" t="n">
-        <v>0.007999134063720704</v>
+        <v>0.007064485549926757</v>
       </c>
     </row>
     <row r="5">
@@ -631,16 +631,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01299777030944824</v>
+        <v>0.01185088157653809</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0118013858795166</v>
+        <v>0.01421489715576172</v>
       </c>
       <c r="D5" t="n">
-        <v>0.006400156021118164</v>
+        <v>0.01569652557373047</v>
       </c>
       <c r="E5" t="n">
-        <v>0.007992267608642578</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00978713035583496</v>
+        <v>0.01393203735351562</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01181368827819824</v>
+        <v>0.01024899482727051</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006191682815551758</v>
+        <v>0.01558284759521484</v>
       </c>
       <c r="K5" t="n">
-        <v>0.009407758712768555</v>
+        <v>0.001567840576171875</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -674,40 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2619985580444336</v>
+        <v>0.2626073837280273</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04319491386413574</v>
+        <v>0.04109110832214356</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1314091205596924</v>
+        <v>0.1431647300720215</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02739195823669434</v>
+        <v>0.03231921195983887</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09050664901733399</v>
+        <v>0.1126039505004883</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01580123901367187</v>
+        <v>0.02222952842712402</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3138197898864746</v>
+        <v>0.3756266117095947</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04560251235961914</v>
+        <v>0.05570282936096192</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2040053844451904</v>
+        <v>0.2094531536102295</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03279032707214356</v>
+        <v>0.03325514793395996</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1169989585876465</v>
+        <v>0.1269631385803223</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01840567588806152</v>
+        <v>0.02043871879577637</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/evaluation_time.xlsx
+++ b/4_classification&evaluation/output/evaluation_time.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,40 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.009796047210693359</v>
+        <v>0.01223330497741699</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02279024124145508</v>
+        <v>0.02341761589050293</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00312647819519043</v>
+        <v>0.00535745620727539</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01762537956237793</v>
+        <v>0.01214289665222168</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003726291656494141</v>
+        <v>0.003723478317260742</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05270538330078125</v>
+        <v>0.05266880989074707</v>
       </c>
       <c r="H2" t="n">
-        <v>0.009382867813110351</v>
+        <v>0.01597180366516113</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02599706649780274</v>
+        <v>0.01503376960754394</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00970306396484375</v>
+        <v>0.01118769645690918</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01475033760070801</v>
+        <v>0.01879720687866211</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00700526237487793</v>
+        <v>0.005536985397338867</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0132171630859375</v>
+        <v>0.01330232620239258</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05377283096313477</v>
+        <v>0.05794916152954101</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02862896919250488</v>
+        <v>0.02321267127990723</v>
       </c>
       <c r="D3" t="n">
-        <v>0.008992338180541992</v>
+        <v>0.01250844001770019</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01143684387207031</v>
+        <v>0.01058416366577148</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0157198429107666</v>
+        <v>0.009735202789306641</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.002799844741821289</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06583108901977539</v>
+        <v>0.06732068061828614</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02456555366516113</v>
+        <v>0.02409334182739258</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03796019554138184</v>
+        <v>0.04278016090393066</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01563382148742676</v>
+        <v>0.0110142707824707</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01526918411254883</v>
+        <v>0.01713852882385254</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01136612892150879</v>
+        <v>0.01138029098510742</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02357845306396484</v>
+        <v>0.02223739624023437</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01424446105957031</v>
+        <v>0.01289124488830566</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007114553451538086</v>
+        <v>0.01388835906982422</v>
       </c>
       <c r="E4" t="n">
-        <v>0.007086801528930664</v>
+        <v>0.001472616195678711</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02898449897766113</v>
+        <v>0.0301846981048584</v>
       </c>
       <c r="G4" t="n">
-        <v>0.007525300979614258</v>
+        <v>0.007805442810058594</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0185636043548584</v>
+        <v>0.01461348533630371</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01203804016113281</v>
+        <v>0.01173267364501953</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01062946319580078</v>
+        <v>0.01222672462463379</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01005759239196777</v>
+        <v>0.008199977874755859</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03003277778625488</v>
+        <v>0.0352264404296875</v>
       </c>
       <c r="M4" t="n">
-        <v>0.007064485549926757</v>
+        <v>0.008774614334106446</v>
       </c>
     </row>
     <row r="5">
@@ -631,16 +631,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01185088157653809</v>
+        <v>0.01409602165222168</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01421489715576172</v>
+        <v>0.01233382225036621</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01569652557373047</v>
+        <v>0.003233194351196289</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.01342692375183105</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01393203735351562</v>
+        <v>0.01256961822509766</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01024899482727051</v>
+        <v>0.01077876091003418</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01558284759521484</v>
+        <v>0.01663980484008789</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001567840576171875</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -670,44 +670,87 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4370864391326904</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.01960210800170898</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3234162330627441</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.01714372634887695</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.3555170059204101</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.01420173645019531</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1269444942474365</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.01027321815490723</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.1189289569854736</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.01568608283996582</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.3811039924621582</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.01101088523864746</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
           <t>Ensemble</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.2626073837280273</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.04109110832214356</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1431647300720215</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.03231921195983887</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1126039505004883</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.02222952842712402</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.3756266117095947</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.05570282936096192</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.2094531536102295</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.03325514793395996</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.1269631385803223</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.02043871879577637</v>
+      <c r="B7" t="n">
+        <v>0.4893858909606933</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.05815262794494629</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2168639659881592</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.01714091300964355</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.4836967945098877</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.01922645568847656</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5476384162902832</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0615788459777832</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3476318836212158</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.03600363731384278</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.5488099098205567</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.01884818077087402</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/evaluation_time.xlsx
+++ b/4_classification&evaluation/output/evaluation_time.xlsx
@@ -502,40 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01223330497741699</v>
+        <v>0.03086786270141601</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02341761589050293</v>
+        <v>0.05265259742736816</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00535745620727539</v>
+        <v>0.01334075927734375</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01214289665222168</v>
+        <v>0.03766536712646484</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003723478317260742</v>
+        <v>0.004376602172851562</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05266880989074707</v>
+        <v>0.1255281448364258</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01597180366516113</v>
+        <v>0.02653508186340332</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01503376960754394</v>
+        <v>0.0518836498260498</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01118769645690918</v>
+        <v>0.01384758949279785</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01879720687866211</v>
+        <v>0.02770719528198242</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005536985397338867</v>
+        <v>0.007568073272705078</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01330232620239258</v>
+        <v>0.02505688667297363</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05794916152954101</v>
+        <v>0.1376707077026367</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02321267127990723</v>
+        <v>0.04104599952697754</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01250844001770019</v>
+        <v>0.02620229721069336</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01058416366577148</v>
+        <v>0.005586051940917968</v>
       </c>
       <c r="F3" t="n">
-        <v>0.009735202789306641</v>
+        <v>0.01305994987487793</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002799844741821289</v>
+        <v>0.01526103019714356</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06732068061828614</v>
+        <v>0.1200681686401367</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02409334182739258</v>
+        <v>0.03180246353149414</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04278016090393066</v>
+        <v>0.0590017318725586</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0110142707824707</v>
+        <v>0.02356057167053223</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01713852882385254</v>
+        <v>0.03096041679382324</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01138029098510742</v>
+        <v>0.01335206031799316</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02223739624023437</v>
+        <v>0.05341620445251465</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01289124488830566</v>
+        <v>0.02685074806213379</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01388835906982422</v>
+        <v>0.009375047683715821</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001472616195678711</v>
+        <v>0.006252241134643555</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0301846981048584</v>
+        <v>0.04615321159362793</v>
       </c>
       <c r="G4" t="n">
-        <v>0.007805442810058594</v>
+        <v>0.00760345458984375</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01461348533630371</v>
+        <v>0.02696304321289062</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01173267364501953</v>
+        <v>0.02380952835083008</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01222672462463379</v>
+        <v>0.01371746063232422</v>
       </c>
       <c r="K4" t="n">
-        <v>0.008199977874755859</v>
+        <v>0.01717348098754883</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0352264404296875</v>
+        <v>0.0430755615234375</v>
       </c>
       <c r="M4" t="n">
-        <v>0.008774614334106446</v>
+        <v>0.008268213272094727</v>
       </c>
     </row>
     <row r="5">
@@ -631,16 +631,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01409602165222168</v>
+        <v>0.02996811866760254</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01233382225036621</v>
+        <v>0.02252864837646484</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003233194351196289</v>
+        <v>0.011602783203125</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01342692375183105</v>
+        <v>0.0157376766204834</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01256961822509766</v>
+        <v>0.01835823059082031</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01077876091003418</v>
+        <v>0.02276477813720703</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01663980484008789</v>
+        <v>0.01563777923583985</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.02546634674072266</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -674,40 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4370864391326904</v>
+        <v>0.4853501319885254</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01960210800170898</v>
+        <v>0.03035573959350586</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3234162330627441</v>
+        <v>0.4424353122711182</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01714372634887695</v>
+        <v>0.02622151374816895</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3555170059204101</v>
+        <v>0.4698287010192871</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01420173645019531</v>
+        <v>0.01604518890380859</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1269444942474365</v>
+        <v>0.1610980987548828</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01027321815490723</v>
+        <v>0.01732673645019531</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1189289569854736</v>
+        <v>0.1611368656158447</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01568608283996582</v>
+        <v>0.01783418655395508</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3811039924621582</v>
+        <v>0.5247678279876709</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01101088523864746</v>
+        <v>0.01622662544250488</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +717,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4893858909606933</v>
+        <v>1.041378164291382</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05815262794494629</v>
+        <v>0.1161933422088623</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2168639659881592</v>
+        <v>0.3512662887573242</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01714091300964355</v>
+        <v>0.03590364456176758</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4836967945098877</v>
+        <v>0.7601140975952149</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01922645568847656</v>
+        <v>0.04442977905273438</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5476384162902832</v>
+        <v>0.9165266513824463</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0615788459777832</v>
+        <v>0.09882216453552246</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3476318836212158</v>
+        <v>0.4718425273895264</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03600363731384278</v>
+        <v>0.06103196144104004</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5488099098205567</v>
+        <v>0.7493313789367676</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01884818077087402</v>
+        <v>0.03231759071350097</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/evaluation_time.xlsx
+++ b/4_classification&evaluation/output/evaluation_time.xlsx
@@ -502,40 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03086786270141601</v>
+        <v>0.0314455509185791</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05265259742736816</v>
+        <v>0.04860405921936035</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01334075927734375</v>
+        <v>0.01070356369018555</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03766536712646484</v>
+        <v>0.03422327041625976</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004376602172851562</v>
+        <v>0.002495002746582031</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1255281448364258</v>
+        <v>0.1478825092315674</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02653508186340332</v>
+        <v>0.03303136825561524</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0518836498260498</v>
+        <v>0.06153683662414551</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01384758949279785</v>
+        <v>0.0169736385345459</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02770719528198242</v>
+        <v>0.05254664421081543</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007568073272705078</v>
+        <v>0.004017877578735352</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02505688667297363</v>
+        <v>0.04060540199279785</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1376707077026367</v>
+        <v>0.147467565536499</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04104599952697754</v>
+        <v>0.04843978881835938</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02620229721069336</v>
+        <v>0.0328115463256836</v>
       </c>
       <c r="E3" t="n">
-        <v>0.005586051940917968</v>
+        <v>0.0176877498626709</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01305994987487793</v>
+        <v>0.01966137886047363</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01526103019714356</v>
+        <v>0.01844062805175781</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1200681686401367</v>
+        <v>0.1804601669311524</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03180246353149414</v>
+        <v>0.0492513656616211</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0590017318725586</v>
+        <v>0.1045034885406494</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02356057167053223</v>
+        <v>0.03377041816711426</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03096041679382324</v>
+        <v>0.03438029289245605</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01335206031799316</v>
+        <v>0.02857403755187988</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05341620445251465</v>
+        <v>0.05333418846130371</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02685074806213379</v>
+        <v>0.02750449180603027</v>
       </c>
       <c r="D4" t="n">
-        <v>0.009375047683715821</v>
+        <v>0.01539821624755859</v>
       </c>
       <c r="E4" t="n">
-        <v>0.006252241134643555</v>
+        <v>0.01601839065551758</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04615321159362793</v>
+        <v>0.06522397994995117</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00760345458984375</v>
+        <v>0.01664719581604004</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02696304321289062</v>
+        <v>0.03271093368530274</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02380952835083008</v>
+        <v>0.03025169372558594</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01371746063232422</v>
+        <v>0.02226753234863281</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01717348098754883</v>
+        <v>0.02833094596862793</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0430755615234375</v>
+        <v>0.07210717201232911</v>
       </c>
       <c r="M4" t="n">
-        <v>0.008268213272094727</v>
+        <v>0.01884493827819824</v>
       </c>
     </row>
     <row r="5">
@@ -631,16 +631,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02996811866760254</v>
+        <v>0.02825822830200195</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02252864837646484</v>
+        <v>0.02827963829040527</v>
       </c>
       <c r="D5" t="n">
-        <v>0.011602783203125</v>
+        <v>0.01311135292053223</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0157376766204834</v>
+        <v>0.02474184036254883</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01835823059082031</v>
+        <v>0.02676587104797363</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02276477813720703</v>
+        <v>0.02411022186279297</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01563777923583985</v>
+        <v>0.01754975318908691</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02546634674072266</v>
+        <v>0.02553768157958984</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -674,40 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4853501319885254</v>
+        <v>0.9008755207061767</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03035573959350586</v>
+        <v>0.04585442543029785</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4424353122711182</v>
+        <v>0.8196640968322754</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02622151374816895</v>
+        <v>0.05265550613403321</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4698287010192871</v>
+        <v>0.9259534358978272</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01604518890380859</v>
+        <v>0.0311607837677002</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1610980987548828</v>
+        <v>0.2254391193389892</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01732673645019531</v>
+        <v>0.02995009422302246</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1611368656158447</v>
+        <v>0.278513765335083</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01783418655395508</v>
+        <v>0.03061251640319824</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5247678279876709</v>
+        <v>0.9483530521392822</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01622662544250488</v>
+        <v>0.031549072265625</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +717,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.041378164291382</v>
+        <v>1.357732725143433</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1161933422088623</v>
+        <v>0.1557707786560059</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3512662887573242</v>
+        <v>0.5387883663177491</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03590364456176758</v>
+        <v>0.05468273162841797</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7601140975952149</v>
+        <v>0.7940410614013672</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04442977905273438</v>
+        <v>0.04458446502685547</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9165266513824463</v>
+        <v>1.066512250900268</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09882216453552246</v>
+        <v>0.1071974754333496</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4718425273895264</v>
+        <v>0.5797893524169921</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06103196144104004</v>
+        <v>0.05726819038391114</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7493313789367676</v>
+        <v>0.9662599086761474</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03231759071350097</v>
+        <v>0.04015698432922363</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/evaluation_time.xlsx
+++ b/4_classification&evaluation/output/evaluation_time.xlsx
@@ -502,40 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0314455509185791</v>
+        <v>0.01321787834167481</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04860405921936035</v>
+        <v>0.02446446418762207</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01070356369018555</v>
+        <v>0.005193376541137695</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03422327041625976</v>
+        <v>0.01822609901428223</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002495002746582031</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1478825092315674</v>
+        <v>0.0632962703704834</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03303136825561524</v>
+        <v>0.01850481033325195</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06153683662414551</v>
+        <v>0.01909732818603516</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0169736385345459</v>
+        <v>0.01494874954223633</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05254664421081543</v>
+        <v>0.03093433380126953</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004017877578735352</v>
+        <v>0.005259943008422851</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04060540199279785</v>
+        <v>0.01699624061584473</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.147467565536499</v>
+        <v>0.08840374946594239</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04843978881835938</v>
+        <v>0.0273953914642334</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0328115463256836</v>
+        <v>0.0202277660369873</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0176877498626709</v>
+        <v>0.01152606010437012</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01966137886047363</v>
+        <v>0.01385688781738281</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01844062805175781</v>
+        <v>0.004719305038452149</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1804601669311524</v>
+        <v>0.09096217155456543</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0492513656616211</v>
+        <v>0.02821483612060547</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1045034885406494</v>
+        <v>0.03766140937805176</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03377041816711426</v>
+        <v>0.01563277244567871</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03438029289245605</v>
+        <v>0.01390180587768555</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02857403755187988</v>
+        <v>0.009477376937866211</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05333418846130371</v>
+        <v>0.02509331703186035</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02750449180603027</v>
+        <v>0.01291303634643555</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01539821624755859</v>
+        <v>0.005937910079956055</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01601839065551758</v>
+        <v>0.006662607192993164</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06522397994995117</v>
+        <v>0.02828989028930664</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01664719581604004</v>
+        <v>0.006249809265136718</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03271093368530274</v>
+        <v>0.01590471267700195</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03025169372558594</v>
+        <v>0.01238737106323242</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02226753234863281</v>
+        <v>0.01097283363342285</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02833094596862793</v>
+        <v>0.006257772445678711</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07210717201232911</v>
+        <v>0.03135590553283692</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01884493827819824</v>
+        <v>0.003134727478027344</v>
       </c>
     </row>
     <row r="5">
@@ -631,16 +631,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02825822830200195</v>
+        <v>0.01251769065856934</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02827963829040527</v>
+        <v>0.01331238746643066</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01311135292053223</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02474184036254883</v>
+        <v>0.015704345703125</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02676587104797363</v>
+        <v>0.01048812866210938</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02411022186279297</v>
+        <v>0.01461496353149414</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01754975318908691</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02553768157958984</v>
+        <v>0.01531906127929688</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -674,40 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9008755207061767</v>
+        <v>0.3644277572631836</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04585442543029785</v>
+        <v>0.0188596248626709</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8196640968322754</v>
+        <v>0.329889440536499</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05265550613403321</v>
+        <v>0.02056207656860352</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9259534358978272</v>
+        <v>0.3833872795104981</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0311607837677002</v>
+        <v>0.01256566047668457</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2254391193389892</v>
+        <v>0.1308046340942383</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02995009422302246</v>
+        <v>0.01892623901367187</v>
       </c>
       <c r="J6" t="n">
-        <v>0.278513765335083</v>
+        <v>0.1223444938659668</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03061251640319824</v>
+        <v>0.01421184539794922</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9483530521392822</v>
+        <v>0.3930227756500244</v>
       </c>
       <c r="M6" t="n">
-        <v>0.031549072265625</v>
+        <v>0.01550831794738769</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +717,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.357732725143433</v>
+        <v>0.6131297588348389</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1557707786560059</v>
+        <v>0.06164984703063965</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5387883663177491</v>
+        <v>0.2285384654998779</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05468273162841797</v>
+        <v>0.02266936302185059</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7940410614013672</v>
+        <v>0.5068877696990967</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04458446502685547</v>
+        <v>0.02262983322143555</v>
       </c>
       <c r="H7" t="n">
-        <v>1.066512250900268</v>
+        <v>0.6459254741668701</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1071974754333496</v>
+        <v>0.06580033302307128</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5797893524169921</v>
+        <v>0.3862461090087891</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05726819038391114</v>
+        <v>0.04363632202148438</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9662599086761474</v>
+        <v>0.6442729949951171</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04015698432922363</v>
+        <v>0.02774744033813476</v>
       </c>
     </row>
   </sheetData>
